--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\takealot-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\takealot-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA91390-161A-44DC-9381-32A062BDA0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42ED3F-FED6-453F-BB7E-4040323AC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="1728" windowWidth="17424" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5616" yWindow="1728" windowWidth="17424" windowHeight="10212" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="common info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>alert_wait_time</t>
   </si>
@@ -353,6 +353,63 @@
   </si>
   <si>
     <t>search_product-2</t>
+  </si>
+  <si>
+    <t>verifyCartIsEmpty</t>
+  </si>
+  <si>
+    <t>verifyCartNotEmpty</t>
+  </si>
+  <si>
+    <t>verifyItemDetailsInCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verifyTotalCartPrice</t>
+  </si>
+  <si>
+    <t>verifyRemovalOfItemFromCart</t>
+  </si>
+  <si>
+    <t>verifyMoveItemToWishlist</t>
+  </si>
+  <si>
+    <t>testNavigateToRegister</t>
+  </si>
+  <si>
+    <t>testNavigateToLogin</t>
+  </si>
+  <si>
+    <t>testNavigateToCart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verifyTitle </t>
+  </si>
+  <si>
+    <t>verifySearchFunctionality</t>
+  </si>
+  <si>
+    <t>verifyLogin</t>
+  </si>
+  <si>
+    <t>verifyIsResultsVisible</t>
+  </si>
+  <si>
+    <t>verifyFilteredProducts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verifyGetProductByPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verifyProductDetails</t>
+  </si>
+  <si>
+    <t>verifyProductsRetrieval</t>
+  </si>
+  <si>
+    <t>verifyProductAddToCart</t>
+  </si>
+  <si>
+    <t>verifyRegistration</t>
   </si>
 </sst>
 </file>
@@ -766,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1631,16 +1688,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39698B59-91B3-4E1C-9325-CF24E0A50812}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1651,6 +1708,158 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\takealot-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B42ED3F-FED6-453F-BB7E-4040323AC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF613DE3-40E4-4CDB-B4FE-B988C3419BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5616" yWindow="1728" windowWidth="17424" windowHeight="10212" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="registration form" sheetId="4" r:id="rId3"/>
     <sheet name="login form" sheetId="7" r:id="rId4"/>
     <sheet name="products" sheetId="5" r:id="rId5"/>
-    <sheet name="test execution" sheetId="6" r:id="rId6"/>
+    <sheet name="execution" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1691,7 +1691,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\takealot-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF613DE3-40E4-4CDB-B4FE-B988C3419BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CCECD-5F50-4AC6-965F-B8E6E322F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="1728" windowWidth="17424" windowHeight="10212" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5616" yWindow="1728" windowWidth="17424" windowHeight="10212" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="common info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="126">
   <si>
     <t>alert_wait_time</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>verifyRegistration</t>
+  </si>
+  <si>
+    <t>cart_page_title</t>
+  </si>
+  <si>
+    <t>Cart - TAKEALOT</t>
   </si>
 </sst>
 </file>
@@ -821,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,41 +857,49 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1524,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2300227-3FF8-4322-9A65-221530F0E639}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,7 +1621,7 @@
         <v>48</v>
       </c>
       <c r="E3">
-        <v>690</v>
+        <v>850</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -1690,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39698B59-91B3-4E1C-9325-CF24E0A50812}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwazinkosizwane\eclipse-workspace\takealot-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CCECD-5F50-4AC6-965F-B8E6E322F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322C5B20-03E9-4B1D-BE44-C8C71485966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5616" yWindow="1728" windowWidth="17424" windowHeight="10212" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1539,7 +1539,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,7 +1592,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>27595</v>
+        <v>27078</v>
       </c>
       <c r="F2">
         <v>4.8</v>
